--- a/doc/Description des données.xlsx
+++ b/doc/Description des données.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maud Otello\Documents\cours_r\Stage_M2\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maud Otello\Documents\cours_r\Stage_M2\script\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1258,11 +1258,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C5:C6"/>
@@ -1272,6 +1267,11 @@
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1"/>
